--- a/curation/templates/TemplateColumns2Models.xlsx
+++ b/curation/templates/TemplateColumns2Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lg10/Workspace/git/fork/PGS_import/curation/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A7DA7-F940-C84A-8379-67713BEFB011}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD6132-0533-4B40-9E90-DB6688F49393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="2060" windowWidth="28800" windowHeight="16260" xr2:uid="{B0CC4535-7E6E-584E-9FDE-AD77876CF244}"/>
+    <workbookView xWindow="28800" yWindow="1520" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{B0CC4535-7E6E-584E-9FDE-AD77876CF244}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="3" r:id="rId1"/>
@@ -517,9 +517,6 @@
     </r>
   </si>
   <si>
-    <t>Cohort  Name</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Sample Set ID
 </t>
@@ -1184,6 +1181,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Cohort Name</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA4E12-E6DC-DD44-8C1B-013CCB4D7782}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2111,7 +2111,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="61">
         <v>44337</v>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FDEE91-4AEE-FD49-8B2B-E0D2B4B6944F}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2163,13 +2163,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2180,13 +2180,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="30"/>
     </row>
@@ -2198,16 +2198,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2218,16 +2218,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2238,13 +2238,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="30"/>
     </row>
@@ -2256,13 +2256,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="30"/>
     </row>
@@ -2274,7 +2274,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="37"/>
@@ -2286,16 +2286,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="E8" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
@@ -2305,19 +2305,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E9" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2325,19 +2325,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2345,16 +2345,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="30"/>
     </row>
@@ -2366,16 +2366,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2386,16 +2386,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2406,13 +2406,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="30"/>
     </row>
@@ -2421,16 +2421,16 @@
         <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E15" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15" s="30"/>
     </row>
@@ -2442,16 +2442,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2462,13 +2462,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="39"/>
@@ -2478,16 +2478,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -2497,18 +2497,18 @@
         <v>17</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2519,17 +2519,17 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2540,15 +2540,15 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2559,13 +2559,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="30"/>
     </row>
@@ -2577,13 +2577,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" s="30"/>
     </row>
@@ -2595,16 +2595,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2615,13 +2615,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" s="30"/>
     </row>
@@ -2633,13 +2633,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="30"/>
     </row>
@@ -2651,13 +2651,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="30"/>
     </row>
@@ -2666,20 +2666,20 @@
         <v>17</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2690,16 +2690,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2710,13 +2710,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" s="30"/>
     </row>
@@ -2728,13 +2728,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" s="30"/>
     </row>
@@ -2746,13 +2746,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" s="30"/>
     </row>
@@ -2764,13 +2764,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="30"/>
     </row>
@@ -2779,20 +2779,20 @@
         <v>17</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2803,17 +2803,17 @@
         <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2824,13 +2824,13 @@
         <v>32</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="56"/>
@@ -2840,20 +2840,20 @@
         <v>33</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2861,20 +2861,20 @@
         <v>33</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2882,19 +2882,19 @@
         <v>33</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2905,10 +2905,10 @@
         <v>34</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="32"/>
@@ -2921,10 +2921,10 @@
         <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="31"/>
@@ -2934,13 +2934,13 @@
         <v>33</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="31"/>
@@ -2950,13 +2950,13 @@
         <v>33</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="30"/>
@@ -2966,13 +2966,13 @@
         <v>33</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="30"/>
@@ -2982,13 +2982,13 @@
         <v>33</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -2999,13 +2999,13 @@
         <v>33</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
@@ -3016,16 +3016,16 @@
         <v>33</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F47" s="30"/>
     </row>
@@ -3034,16 +3034,16 @@
         <v>33</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="59"/>
@@ -3056,16 +3056,16 @@
         <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -3073,16 +3073,16 @@
         <v>36</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="C50" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="47" t="s">
-        <v>74</v>
-      </c>
       <c r="E50" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="59"/>
@@ -3139,139 +3139,139 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C1" s="60" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>

--- a/curation/templates/TemplateColumns2Models.xlsx
+++ b/curation/templates/TemplateColumns2Models.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lg10/Workspace/git/fork/PGS_import/curation/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lg10/Workspace/git/fork/PGS_weight_type/curation/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD6132-0533-4B40-9E90-DB6688F49393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B89575-3FFD-7143-9D81-E80D9EB1D7DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1520" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{B0CC4535-7E6E-584E-9FDE-AD77876CF244}"/>
+    <workbookView xWindow="28800" yWindow="1520" windowWidth="28800" windowHeight="16260" xr2:uid="{B0CC4535-7E6E-584E-9FDE-AD77876CF244}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="154">
   <si>
     <t>Sheet</t>
   </si>
@@ -1184,6 +1184,12 @@
   </si>
   <si>
     <t>Cohort Name</t>
+  </si>
+  <si>
+    <t>wieght_type</t>
+  </si>
+  <si>
+    <t>Weight type</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1606,21 +1612,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -1656,11 +1647,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1768,13 +1783,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1784,9 +1796,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2103,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA4E12-E6DC-DD44-8C1B-013CCB4D7782}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2114,15 +2133,15 @@
         <v>149</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="61">
-        <v>44337</v>
+      <c r="B2" s="60">
+        <v>44459</v>
       </c>
     </row>
   </sheetData>
@@ -2132,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FDEE91-4AEE-FD49-8B2B-E0D2B4B6944F}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2474,49 +2493,49 @@
       <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-    </row>
-    <row r="19" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="38" t="s">
-        <v>55</v>
-      </c>
+      <c r="E18" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>18</v>
+      <c r="B20" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>53</v>
@@ -2525,11 +2544,9 @@
       <c r="E20" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="F20" s="30"/>
       <c r="G20" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2537,7 +2554,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -2546,9 +2563,11 @@
       <c r="E21" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="30" t="s">
+        <v>139</v>
+      </c>
       <c r="G21" s="38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2556,31 +2575,32 @@
         <v>17</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="25" t="s">
         <v>136</v>
       </c>
       <c r="F22" s="30"/>
+      <c r="G22" s="38" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>136</v>
@@ -2591,52 +2611,52 @@
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>22</v>
+      <c r="B24" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>139</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="30" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>135</v>
@@ -2647,17 +2667,17 @@
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>25</v>
+      <c r="B27" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F27" s="30"/>
     </row>
@@ -2665,41 +2685,39 @@
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>124</v>
+      <c r="B28" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F28" s="30"/>
-      <c r="G28" s="3" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="29" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>26</v>
+      <c r="B29" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>139</v>
+      <c r="F29" s="30"/>
+      <c r="G29" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2707,31 +2725,33 @@
         <v>17</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="30"/>
+      <c r="F30" s="30" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>136</v>
@@ -2743,13 +2763,13 @@
         <v>17</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>136</v>
@@ -2760,14 +2780,14 @@
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>30</v>
+      <c r="B33" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>136</v>
@@ -2778,90 +2798,87 @@
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>141</v>
+      <c r="B34" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="30"/>
-      <c r="G34" s="3" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="35" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>31</v>
+      <c r="B35" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>136</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+    <row r="37" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D37" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="56"/>
-    </row>
-    <row r="37" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="55"/>
+    </row>
+    <row r="38" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>38</v>
+      <c r="B38" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>70</v>
@@ -2874,73 +2891,78 @@
         <v>139</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>121</v>
+      <c r="B39" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="25" t="s">
         <v>136</v>
       </c>
       <c r="F39" s="30" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>34</v>
+      <c r="B40" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="32"/>
+        <v>123</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>35</v>
+      <c r="B41" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="31"/>
+      <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="32"/>
     </row>
     <row r="42" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="43" t="s">
-        <v>142</v>
+      <c r="B42" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>78</v>
+      <c r="D42" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="31"/>
@@ -2949,30 +2971,30 @@
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="41" t="s">
-        <v>143</v>
+      <c r="B43" s="43" t="s">
+        <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="30"/>
+      <c r="D43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>144</v>
+      <c r="B44" s="41" t="s">
+        <v>143</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="30"/>
@@ -2981,114 +3003,127 @@
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>145</v>
+      <c r="B45" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
+      <c r="D45" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>146</v>
+      <c r="B46" s="41" t="s">
+        <v>145</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>39</v>
+      <c r="B47" s="43" t="s">
+        <v>146</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+    </row>
+    <row r="48" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="30"/>
-    </row>
-    <row r="48" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47" t="s">
+      <c r="E48" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B49" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C49" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D49" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="59"/>
-    </row>
-    <row r="49" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="E49" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="58"/>
+    </row>
+    <row r="50" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="30" t="s">
+      <c r="E50" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="47" t="s">
+    <row r="51" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B51" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C51" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D51" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="59"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="38"/>
+      <c r="E51" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="58"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="38"/>
@@ -3099,10 +3134,10 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" s="38"/>
     </row>
-    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" s="38"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="38"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3116,6 +3151,9 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="38"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3138,13 +3176,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>91</v>
       </c>
     </row>
